--- a/data/landings/cdfw/public/fish_bulletins/raw/fb67/raw/Table24.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb67/raw/Table24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb67/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB146C24-C6C2-CA4C-9C84-D3152BDC21CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510919C1-2082-BD44-AB36-FD88CB8D7A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -130,6 +130,12 @@
   <si>
     <t>Nativity</t>
   </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Philippine Island</t>
+  </si>
 </sst>
 </file>
 
@@ -137,7 +143,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -225,38 +231,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -574,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,7 +608,9 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3">
         <v>696</v>
@@ -610,7 +618,9 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
@@ -619,8 +629,10 @@
       </c>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
@@ -644,7 +656,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -654,7 +668,9 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
@@ -664,7 +680,9 @@
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
@@ -687,8 +705,10 @@
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -698,7 +718,9 @@
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
@@ -708,7 +730,9 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
@@ -718,8 +742,12 @@
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C13" s="10">
         <v>26</v>
       </c>
@@ -739,8 +767,10 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -750,15 +780,21 @@
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" s="10">
         <v>383</v>
       </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
@@ -768,8 +804,12 @@
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="10">
         <v>18</v>
       </c>
@@ -790,6 +830,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
@@ -798,17 +841,25 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C21" s="13">
         <v>39</v>
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C22" s="10">
         <v>13</v>
       </c>
@@ -829,6 +880,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>3</v>
       </c>
@@ -838,7 +892,9 @@
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
@@ -848,7 +904,9 @@
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>4</v>
       </c>
@@ -857,8 +915,10 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B27" s="7" t="s">
         <v>17</v>
       </c>
@@ -867,16 +927,20 @@
       </c>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="15">
         <v>65</v>
       </c>
       <c r="D28" s="11"/>
     </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
@@ -886,7 +950,9 @@
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B30" s="7" t="s">
         <v>11</v>
       </c>
@@ -896,7 +962,9 @@
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B31" s="7" t="s">
         <v>12</v>
       </c>
@@ -920,6 +988,9 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>3</v>
       </c>
@@ -928,16 +999,22 @@
       </c>
       <c r="D33" s="11"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="C34" s="16">
         <v>299</v>
       </c>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="B35" s="6" t="s">
         <v>4</v>
       </c>
@@ -946,8 +1023,10 @@
       </c>
       <c r="D35" s="11"/>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="B36" s="7" t="s">
         <v>17</v>
       </c>
@@ -957,7 +1036,9 @@
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="B37" s="7" t="s">
         <v>6</v>
       </c>
@@ -980,7 +1061,10 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>3</v>
       </c>
@@ -989,16 +1073,22 @@
       </c>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C40" s="15">
         <v>296</v>
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
+    <row r="41" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>10</v>
       </c>
